--- a/output/fit_clients/fit_round_359.xlsx
+++ b/output/fit_clients/fit_round_359.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1562232009.777434</v>
+        <v>2453935565.918005</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0802037897490628</v>
+        <v>0.1015507871576405</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03527307278846598</v>
+        <v>0.033028527838233</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>781115941.6466539</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1716739507.200011</v>
+        <v>1659308736.556173</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1802280225734535</v>
+        <v>0.1177268089824338</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04641376676959665</v>
+        <v>0.03286265639423276</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>9</v>
-      </c>
-      <c r="J3" t="n">
-        <v>858369749.8056549</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3382020147.063228</v>
+        <v>3813491961.065102</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1480736671671686</v>
+        <v>0.1153202831154842</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03670471356378168</v>
+        <v>0.03601285305723021</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>130</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1691010043.953264</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2682884640.623098</v>
+        <v>3368167221.896587</v>
       </c>
       <c r="F5" t="n">
-        <v>0.06971608911332819</v>
+        <v>0.08918375269135544</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03689027225341224</v>
+        <v>0.04902422350653385</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>134</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1341442411.173301</v>
       </c>
     </row>
     <row r="6">
@@ -632,22 +598,16 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2414938385.369773</v>
+        <v>2208105686.509099</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1070157580781167</v>
+        <v>0.1412108694180128</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04525017923758744</v>
+        <v>0.05083485834244862</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>68</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1207469177.385339</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2557337104.995876</v>
+        <v>2487894500.011861</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09197815016420728</v>
+        <v>0.07650638866058998</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03859595685400815</v>
+        <v>0.03750174090133612</v>
       </c>
       <c r="H7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>112</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1278668559.984469</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -700,22 +654,16 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3609963518.583143</v>
+        <v>3220495084.106017</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1593415114887638</v>
+        <v>0.1738344717423924</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0218015928898379</v>
+        <v>0.02742135867430472</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>114</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1804981879.170775</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1779874479.114673</v>
+        <v>2218341288.130806</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1638763501001903</v>
+        <v>0.1920804247597062</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02294018433522665</v>
+        <v>0.02980916454806999</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>889937296.7211273</v>
       </c>
     </row>
     <row r="10">
@@ -768,22 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5692505609.170116</v>
+        <v>5234958691.904181</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1931664752071307</v>
+        <v>0.1833263033274058</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04396971024038306</v>
+        <v>0.03386785434462469</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>151</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2846252957.526076</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3211052357.696724</v>
+        <v>4167099514.884947</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1814097087615564</v>
+        <v>0.1470192161897086</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04739144876094858</v>
+        <v>0.04302330493478283</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>148</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1605526136.561502</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2678127514.467363</v>
+        <v>3269457310.368515</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1623607655488759</v>
+        <v>0.1769938018010174</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04615620819343815</v>
+        <v>0.04606311403063327</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>122</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1339063745.796621</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4823130627.503756</v>
+        <v>3364781406.669429</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09866283394589914</v>
+        <v>0.100494918064507</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02199527871222774</v>
+        <v>0.02471082499286663</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>120</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2411565326.884483</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2734182348.297758</v>
+        <v>2908817736.672303</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1649658171915576</v>
+        <v>0.1607975752763964</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04012182597030688</v>
+        <v>0.04290921895900366</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>119</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1367091227.847315</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1458658589.842147</v>
+        <v>1427286625.344431</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07633704212655686</v>
+        <v>0.101390971552631</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04738530727616461</v>
+        <v>0.03107008738354069</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>729329371.0539243</v>
       </c>
     </row>
     <row r="16">
@@ -972,22 +878,16 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2632646851.543787</v>
+        <v>1880612122.897923</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08654241812228092</v>
+        <v>0.077857124485279</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04778470749949926</v>
+        <v>0.0476161491191724</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>72</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1316323444.743749</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5034942679.562132</v>
+        <v>4550583287.535871</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1543351321940186</v>
+        <v>0.1642937457364442</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04657336333315808</v>
+        <v>0.03512323875699858</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>105</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2517471323.188486</v>
       </c>
     </row>
     <row r="18">
@@ -1040,22 +934,16 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2985706050.024424</v>
+        <v>3082173506.361836</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1552745285256129</v>
+        <v>0.1282106660450236</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03279997181473594</v>
+        <v>0.02329545671819811</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>118</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1492853056.370492</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1222914612.284155</v>
+        <v>1309492971.135222</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1652196559982153</v>
+        <v>0.1176002006996001</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02535925957176544</v>
+        <v>0.02229144594130258</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>611457389.6290622</v>
       </c>
     </row>
     <row r="20">
@@ -1108,22 +990,16 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2021748870.141863</v>
+        <v>2488487949.69319</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1435420759241038</v>
+        <v>0.143700344200294</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02537228742468378</v>
+        <v>0.01951695856649661</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>46</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1010874459.110126</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2599958531.561877</v>
+        <v>2338202414.611331</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08538626131300089</v>
+        <v>0.07823519499128546</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0354500534300027</v>
+        <v>0.03681951528298799</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>29</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1299979244.356498</v>
       </c>
     </row>
     <row r="22">
@@ -1176,22 +1046,16 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3434468773.120053</v>
+        <v>2568782840.602154</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1044644144794117</v>
+        <v>0.09654188050371108</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04813292105825939</v>
+        <v>0.05227002762844447</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>99</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1717234422.080454</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -1210,22 +1074,16 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1495707595.24423</v>
+        <v>1105265886.572283</v>
       </c>
       <c r="F23" t="n">
-        <v>0.112149818034651</v>
+        <v>0.1249912359947723</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03889706980478018</v>
+        <v>0.05253828898834464</v>
       </c>
       <c r="H23" t="b">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>747853784.2929946</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3053536745.266273</v>
+        <v>3424562621.5141</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1159260675655016</v>
+        <v>0.1117764193623449</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02904904359497709</v>
+        <v>0.03669117291588955</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>105</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1526768404.283725</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1351021015.253697</v>
+        <v>1370900594.550535</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09942599587137187</v>
+        <v>0.09886140597846994</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02875404031542747</v>
+        <v>0.02968724716877503</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>675510490.8516341</v>
       </c>
     </row>
     <row r="26">
@@ -1312,22 +1158,16 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1053589451.95293</v>
+        <v>1000477449.352187</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1072148607731686</v>
+        <v>0.08524086754578987</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03578385286389361</v>
+        <v>0.03768592552478266</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>526794711.15754</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4586390431.132189</v>
+        <v>4576501322.510555</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1182430759679164</v>
+        <v>0.1038513829490174</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01941793633763496</v>
+        <v>0.02306737059528007</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>84</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2293195196.599366</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3115926315.348814</v>
+        <v>2851691124.25891</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1208803790451466</v>
+        <v>0.1033811646168706</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03463963824132583</v>
+        <v>0.04625628876335942</v>
       </c>
       <c r="H28" t="b">
         <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>115</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1557963178.955915</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5098407436.3117</v>
+        <v>5219801053.774092</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1364767141027575</v>
+        <v>0.1139486228828558</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03689763304931508</v>
+        <v>0.03161518522686388</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>158</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2549203658.955334</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2376932831.286244</v>
+        <v>2050490926.453177</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1068080883555198</v>
+        <v>0.09630522346193282</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03507399392406568</v>
+        <v>0.03070542155533535</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1188466496.025888</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1237672544.171109</v>
+        <v>1423909615.078488</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1073557691894604</v>
+        <v>0.07778133370833806</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0320706251735721</v>
+        <v>0.04691251062477046</v>
       </c>
       <c r="H31" t="b">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>618836214.6817362</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -1516,22 +1326,16 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1292194533.276455</v>
+        <v>1365159863.788091</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09523220100053009</v>
+        <v>0.1157345926615631</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02441708371283728</v>
+        <v>0.03293682291408145</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>646097291.9656178</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2263179766.569655</v>
+        <v>2155200782.796547</v>
       </c>
       <c r="F33" t="n">
-        <v>0.203852337345465</v>
+        <v>0.1308733744450845</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04778119700856271</v>
+        <v>0.04021642500765368</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>108</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1131589941.694236</v>
       </c>
     </row>
     <row r="34">
@@ -1584,22 +1382,16 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1342013048.753457</v>
+        <v>1572191511.406611</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09664295154564967</v>
+        <v>0.08194609841093216</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02272752002777452</v>
+        <v>0.02646292301052001</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>671006506.1971061</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>943398187.4931926</v>
+        <v>1195644613.276475</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1113795384647988</v>
+        <v>0.09697997129950742</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0275531773593334</v>
+        <v>0.03042845064924787</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>471699124.7608742</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2651572222.986398</v>
+        <v>2952013288.811447</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1372612630396134</v>
+        <v>0.1804811537639363</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02781265627903413</v>
+        <v>0.02407358323962351</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>92</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1325786121.346285</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2651464450.0843</v>
+        <v>2437673599.369427</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07547737853734034</v>
+        <v>0.09899987700667244</v>
       </c>
       <c r="G37" t="n">
-        <v>0.028943119578171</v>
+        <v>0.03696893343276671</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>95</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1325732341.952235</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1811724356.889824</v>
+        <v>1895960948.206169</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0839707182564359</v>
+        <v>0.096339256078101</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03335858084604259</v>
+        <v>0.03682960879660607</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>905862183.6748846</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1711602808.793406</v>
+        <v>2137584705.245042</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1942330303819291</v>
+        <v>0.1606099582709748</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03051548345318367</v>
+        <v>0.0287849075983295</v>
       </c>
       <c r="H39" t="b">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>855801442.7083005</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1693781305.117937</v>
+        <v>1432128143.48194</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1035919196510561</v>
+        <v>0.1481636964690273</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05325770691064474</v>
+        <v>0.05691102354761429</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>846890570.2576528</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1963521677.934288</v>
+        <v>2766334289.697203</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1592375670535759</v>
+        <v>0.1194612582304951</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04672191735006623</v>
+        <v>0.03060055540119028</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>92</v>
-      </c>
-      <c r="J41" t="n">
-        <v>981760916.8148658</v>
       </c>
     </row>
     <row r="42">
@@ -1856,22 +1606,16 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2629689118.126146</v>
+        <v>3079058237.540508</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1142306016411392</v>
+        <v>0.1242780095583901</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04257727995382213</v>
+        <v>0.04002742701416923</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>116</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1314844494.048999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1890,22 +1634,16 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2996010474.186482</v>
+        <v>2407227528.516758</v>
       </c>
       <c r="F43" t="n">
-        <v>0.156659867149664</v>
+        <v>0.1966437605943601</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02056174589427823</v>
+        <v>0.02080525208315446</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>127</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1498005235.892472</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2196092020.934752</v>
+        <v>2069131234.466002</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09494830697658604</v>
+        <v>0.0847391909184034</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02313070605849929</v>
+        <v>0.02597218793002664</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1098046155.928076</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2282497841.765614</v>
+        <v>1713996676.086916</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1272706742870831</v>
+        <v>0.1809144944804831</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04686900899423284</v>
+        <v>0.05451732539227794</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1141248940.26976</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4618291131.840882</v>
+        <v>3885570755.074583</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1443950661207672</v>
+        <v>0.1733873812887317</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05151078688086194</v>
+        <v>0.05535687544762708</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>128</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2309145570.902502</v>
       </c>
     </row>
     <row r="47">
@@ -2026,22 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3508973939.328628</v>
+        <v>4144368835.175581</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1355758660387386</v>
+        <v>0.1533243596786946</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04208119403561358</v>
+        <v>0.04378515263992818</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>97</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1754486940.976338</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3881681142.52973</v>
+        <v>3404328293.573047</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08989816636116693</v>
+        <v>0.1015057491999299</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03865275458826972</v>
+        <v>0.03372635926955823</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>117</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1940840612.508335</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1690465981.435952</v>
+        <v>1451546774.352713</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1644324806145029</v>
+        <v>0.1961348519973544</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03813950198969506</v>
+        <v>0.03974985992230504</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>845232993.1420915</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3539839484.438075</v>
+        <v>4227478483.91755</v>
       </c>
       <c r="F50" t="n">
-        <v>0.110945957389415</v>
+        <v>0.1494553021126111</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04206518037931276</v>
+        <v>0.04571294281707024</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>122</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1769919763.639551</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -2162,22 +1858,16 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1497802349.475239</v>
+        <v>1364404732.027119</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1247095856864991</v>
+        <v>0.1963430920565854</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04423160528784539</v>
+        <v>0.04243066680876473</v>
       </c>
       <c r="H51" t="b">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>748901178.0419133</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5271712216.3741</v>
+        <v>3405608038.621691</v>
       </c>
       <c r="F52" t="n">
-        <v>0.08529792653499957</v>
+        <v>0.08543764938819939</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05931400739878749</v>
+        <v>0.05971098342530498</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>148</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2635856089.831017</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3086512054.491006</v>
+        <v>2598336139.063178</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1593782883238211</v>
+        <v>0.1509610816674982</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0263533576603458</v>
+        <v>0.03285629422960405</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>104</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1543256053.717916</v>
       </c>
     </row>
     <row r="54">
@@ -2264,22 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4052400551.729771</v>
+        <v>3208573020.981463</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1272792104316211</v>
+        <v>0.164998724111195</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03510256484713298</v>
+        <v>0.05192700444156243</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>116</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2026200344.061206</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -2298,22 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4754672554.088464</v>
+        <v>4757061256.605586</v>
       </c>
       <c r="F55" t="n">
-        <v>0.20328274542977</v>
+        <v>0.1846751633597424</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03152062622825345</v>
+        <v>0.02070918266879452</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>93</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2377336285.291125</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1843644003.362805</v>
+        <v>1811877351.998537</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1115927726001017</v>
+        <v>0.1484933196931512</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04393120881068725</v>
+        <v>0.04514589162706646</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>921821993.0020677</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4146281492.418635</v>
+        <v>4291366629.303795</v>
       </c>
       <c r="F57" t="n">
-        <v>0.180147752881543</v>
+        <v>0.1336652342093206</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0235279048607316</v>
+        <v>0.02623617138827281</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>114</v>
-      </c>
-      <c r="J57" t="n">
-        <v>2073140846.869794</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1519224746.900914</v>
+        <v>1645424120.372521</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1656108599979537</v>
+        <v>0.1888554707287275</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03280948212556214</v>
+        <v>0.02932954039651822</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>759612402.836974</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5405773613.119777</v>
+        <v>3592205785.954959</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08736531073267173</v>
+        <v>0.09704382234539038</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04719903307489143</v>
+        <v>0.04134721420992094</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>100</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2702886714.691613</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2437459528.173948</v>
+        <v>3158566194.527686</v>
       </c>
       <c r="F60" t="n">
-        <v>0.201884936278713</v>
+        <v>0.2023413504786812</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03294735387201111</v>
+        <v>0.0299190187014505</v>
       </c>
       <c r="H60" t="b">
-        <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>112</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1218729775.43988</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2064718795.11806</v>
+        <v>2810127849.649315</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1169251738903907</v>
+        <v>0.1196995530726351</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02790846611998119</v>
+        <v>0.02485396613949285</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>124</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1032359466.241094</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2082590518.668826</v>
+        <v>2037743444.113554</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1214424694243963</v>
+        <v>0.1241544398592798</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03066620941487531</v>
+        <v>0.03063955461467583</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>1041295329.814963</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4267558875.727163</v>
+        <v>3644527982.978961</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08277618419557212</v>
+        <v>0.06978491519692467</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04687418676727097</v>
+        <v>0.02927228834113279</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>103</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2133779488.345643</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4626793372.78922</v>
+        <v>3364962208.611967</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1877056911642947</v>
+        <v>0.1297821008669064</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02349465678957322</v>
+        <v>0.0315835673801071</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>112</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2313396766.343102</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5687948593.732893</v>
+        <v>4460693502.112496</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1190416729106599</v>
+        <v>0.1415334101809702</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02274700286769841</v>
+        <v>0.02414048685458038</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>129</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2843974214.730952</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4341331765.345116</v>
+        <v>5389923568.068038</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1035479814387565</v>
+        <v>0.1534478729269916</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03237722887293257</v>
+        <v>0.03808804125644682</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>104</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2170665874.554368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -2706,22 +2306,16 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2535253094.432892</v>
+        <v>3255062041.893516</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07892743803147165</v>
+        <v>0.07379232527822392</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03720597007843088</v>
+        <v>0.0347259428999366</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>115</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1267626604.860438</v>
       </c>
     </row>
     <row r="68">
@@ -2740,22 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3855109905.433135</v>
+        <v>5685086526.640538</v>
       </c>
       <c r="F68" t="n">
-        <v>0.109772778532446</v>
+        <v>0.1076387796037494</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04106966149163578</v>
+        <v>0.04490029325732196</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>114</v>
-      </c>
-      <c r="J68" t="n">
-        <v>1927554939.736824</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1753438779.137893</v>
+        <v>1496453236.251405</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1317319294153618</v>
+        <v>0.153536792560326</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03881065822561983</v>
+        <v>0.04816301205285529</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>876719362.6548299</v>
       </c>
     </row>
     <row r="70">
@@ -2808,22 +2390,16 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3005642742.624705</v>
+        <v>2380301554.16898</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09331252321866951</v>
+        <v>0.08595469475481582</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03249332608710784</v>
+        <v>0.04614770523369904</v>
       </c>
       <c r="H70" t="b">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>103</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1502821348.689433</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5032515270.514872</v>
+        <v>4602018004.468266</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1514994046286972</v>
+        <v>0.1770783584341555</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03015066321882463</v>
+        <v>0.02813354571809744</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>130</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2516257743.373116</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2199913652.216553</v>
+        <v>2187133003.926322</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07577790043978741</v>
+        <v>0.07705867775212943</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03772728121798361</v>
+        <v>0.03627300397596003</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1099956740.193491</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2268768098.623121</v>
+        <v>3535671487.208607</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1059688067625764</v>
+        <v>0.08242734498396043</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04585129332227544</v>
+        <v>0.04237168115334648</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>136</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1134384112.264411</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3078990971.493933</v>
+        <v>3545524122.926659</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1580948530235862</v>
+        <v>0.142690977415717</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02886060582501935</v>
+        <v>0.03340115398769886</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>122</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1539495544.349257</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2349502687.315973</v>
+        <v>1538661867.599452</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1093391134319486</v>
+        <v>0.1488464100380534</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02495671172056299</v>
+        <v>0.02693669070098862</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1174751275.085772</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4240046147.82857</v>
+        <v>3443404985.872011</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1237144773027332</v>
+        <v>0.08160433397270596</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03131586006730826</v>
+        <v>0.0208737629259238</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>86</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2120023068.707755</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2073352240.371676</v>
+        <v>2309910678.197093</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1157726085568824</v>
+        <v>0.1481091404623548</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02250074384785861</v>
+        <v>0.02461546032952381</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>1036676192.530492</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3893972453.752738</v>
+        <v>3185653189.802176</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08277564788663778</v>
+        <v>0.1292856329148123</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03922285047110078</v>
+        <v>0.04322703339129824</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>125</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1946986200.185497</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1163258508.487321</v>
+        <v>1725409353.772185</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1120788800584338</v>
+        <v>0.1191094584638326</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0352798482975827</v>
+        <v>0.03421326960420703</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>581629229.5540744</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3831413024.928635</v>
+        <v>3837528911.193342</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08171473976793278</v>
+        <v>0.09708654014444447</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02559871863514104</v>
+        <v>0.03619291935978562</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>77</v>
-      </c>
-      <c r="J80" t="n">
-        <v>1915706503.550269</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4467794524.798318</v>
+        <v>4752147956.589599</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1003489196214187</v>
+        <v>0.09414202463355865</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03117316866030638</v>
+        <v>0.02651294182159328</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>79</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2233897242.994372</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3827718293.742804</v>
+        <v>4825994253.879032</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2041054445156318</v>
+        <v>0.1603949615808903</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0280050953477918</v>
+        <v>0.0288967687720037</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>126</v>
-      </c>
-      <c r="J82" t="n">
-        <v>1913859196.266188</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1991841275.573349</v>
+        <v>1778377654.226793</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1402401533222414</v>
+        <v>0.1058752877174175</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03968779727344383</v>
+        <v>0.04470893273703012</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>995920622.0602994</v>
       </c>
     </row>
     <row r="84">
@@ -3284,22 +2782,16 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2474921776.070109</v>
+        <v>1726667429.769418</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1117137241124064</v>
+        <v>0.08149428716840926</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03429859700989426</v>
+        <v>0.03234253579697077</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>4</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1237460823.505719</v>
       </c>
     </row>
     <row r="85">
@@ -3318,22 +2810,16 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2241406741.964835</v>
+        <v>2472787780.807464</v>
       </c>
       <c r="F85" t="n">
-        <v>0.15101914487142</v>
+        <v>0.1199608767252343</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04636183865358869</v>
+        <v>0.05182065490107603</v>
       </c>
       <c r="H85" t="b">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>135</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1120703347.418482</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2031173888.5421</v>
+        <v>2687621396.643816</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1318057142995185</v>
+        <v>0.1163604444735518</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02198715820628206</v>
+        <v>0.01968729809463063</v>
       </c>
       <c r="H86" t="b">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>48</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1015586976.2472</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1330168927.28065</v>
+        <v>967037381.4156901</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1239364420401223</v>
+        <v>0.1210969079376592</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03032921176784538</v>
+        <v>0.02729007636112096</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>665084552.5921111</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3144804093.586141</v>
+        <v>2552765497.917559</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1379264487891736</v>
+        <v>0.1472922336914644</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03441574982195763</v>
+        <v>0.02950679030705626</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>143</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1572402091.550882</v>
       </c>
     </row>
     <row r="89">
@@ -3454,22 +2922,16 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2945531369.950103</v>
+        <v>2665580948.757168</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1368973398735542</v>
+        <v>0.1335338310803184</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03229033685394552</v>
+        <v>0.03835616382540407</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>121</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1472765727.0805</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1800450219.024496</v>
+        <v>1845674838.434715</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1093943364781712</v>
+        <v>0.1254198979376903</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0369622494403621</v>
+        <v>0.03465572944749928</v>
       </c>
       <c r="H90" t="b">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>900225143.2768079</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1352123789.819397</v>
+        <v>1451653614.507565</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1365043862829684</v>
+        <v>0.1458764067379833</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03942236851953991</v>
+        <v>0.04482893699618689</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>676061953.5710287</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2490901899.26954</v>
+        <v>2267407801.92241</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09992554692368588</v>
+        <v>0.06660383897750069</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04319444057817454</v>
+        <v>0.03789232197717297</v>
       </c>
       <c r="H92" t="b">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>98</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1245450932.916532</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3032778845.473239</v>
+        <v>4081362106.747254</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1408672644334555</v>
+        <v>0.09927769841001793</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05041890341922981</v>
+        <v>0.052175805690183</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>111</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1516389485.908797</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -3624,22 +3062,16 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2305839016.59488</v>
+        <v>2154006014.223499</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1219394978625571</v>
+        <v>0.1192118996896436</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02799848717035951</v>
+        <v>0.0295225170203018</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>1</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1152919546.438149</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2161077571.108006</v>
+        <v>2902414775.827414</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1229231197838209</v>
+        <v>0.138098589290555</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03411599025149259</v>
+        <v>0.03477234042155901</v>
       </c>
       <c r="H95" t="b">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>91</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1080538846.292441</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -3692,22 +3118,16 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2118195588.902534</v>
+        <v>2252277717.0644</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09463961123887137</v>
+        <v>0.1205217791227332</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04198554131071093</v>
+        <v>0.04535712024151708</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1059097768.819105</v>
       </c>
     </row>
     <row r="97">
@@ -3726,22 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4314571705.790895</v>
+        <v>5017689676.166514</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1422317386262759</v>
+        <v>0.1670616425003781</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01874729071008565</v>
+        <v>0.02456826580926715</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>116</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2157285934.592435</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2829116109.056594</v>
+        <v>2390894374.491021</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09409864645205783</v>
+        <v>0.08784600232863136</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0324346185560208</v>
+        <v>0.02886023396845634</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>97</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1414558027.628491</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2618301079.259705</v>
+        <v>3341721834.43938</v>
       </c>
       <c r="F99" t="n">
-        <v>0.130445681598729</v>
+        <v>0.1177509634982253</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02617539122853414</v>
+        <v>0.03192635303258712</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>113</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1309150497.922359</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3455924366.218898</v>
+        <v>2895537557.143343</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1390525939913797</v>
+        <v>0.1465012349220241</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02362990612712465</v>
+        <v>0.01833538239787323</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>110</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1727962210.364013</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3178254884.676869</v>
+        <v>2682218789.652568</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1833866105066495</v>
+        <v>0.1366191094199155</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0371941506243613</v>
+        <v>0.04489572244583318</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>146</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1589127554.96691</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_359.xlsx
+++ b/output/fit_clients/fit_round_359.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2453935565.918005</v>
+        <v>2322571770.930431</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1015507871576405</v>
+        <v>0.086943655150079</v>
       </c>
       <c r="G2" t="n">
-        <v>0.033028527838233</v>
+        <v>0.03660790711062822</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -514,13 +514,13 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1659308736.556173</v>
+        <v>1845212352.338799</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1177268089824338</v>
+        <v>0.143659549674605</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03286265639423276</v>
+        <v>0.03599444240763497</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3813491961.065102</v>
+        <v>4010506197.734962</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1153202831154842</v>
+        <v>0.1424344261944249</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03601285305723021</v>
+        <v>0.02574944582334502</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3368167221.896587</v>
+        <v>2655473955.656658</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08918375269135544</v>
+        <v>0.06777721901163858</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04902422350653385</v>
+        <v>0.04070469674377305</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -598,13 +598,13 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2208105686.509099</v>
+        <v>2481943677.324492</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1412108694180128</v>
+        <v>0.1027596396316824</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05083485834244862</v>
+        <v>0.04427855900332447</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,22 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2487894500.011861</v>
+        <v>2826237193.494135</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07650638866058998</v>
+        <v>0.07954738728471279</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03750174090133612</v>
+        <v>0.03420533364656977</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3220495084.106017</v>
+        <v>2724947157.640096</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1738344717423924</v>
+        <v>0.1589807868639853</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02742135867430472</v>
+        <v>0.03342430678336918</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -682,13 +682,13 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2218341288.130806</v>
+        <v>2216605742.239013</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1920804247597062</v>
+        <v>0.146473372245338</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02980916454806999</v>
+        <v>0.02408527836168528</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -710,16 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5234958691.904181</v>
+        <v>5783363953.583754</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1833263033274058</v>
+        <v>0.2089600975600006</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03386785434462469</v>
+        <v>0.04194614172253833</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4167099514.884947</v>
+        <v>3828153835.273769</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1470192161897086</v>
+        <v>0.1862055566347046</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04302330493478283</v>
+        <v>0.03140677554843977</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3269457310.368515</v>
+        <v>3042274725.657341</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1769938018010174</v>
+        <v>0.1596670469061719</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04606311403063327</v>
+        <v>0.03928109249179738</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3364781406.669429</v>
+        <v>5095059940.445642</v>
       </c>
       <c r="F13" t="n">
-        <v>0.100494918064507</v>
+        <v>0.08878928253791564</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02471082499286663</v>
+        <v>0.02569789516672713</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2908817736.672303</v>
+        <v>3781063543.81995</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1607975752763964</v>
+        <v>0.1559473075373501</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04290921895900366</v>
+        <v>0.04287422354687291</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -850,13 +850,13 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1427286625.344431</v>
+        <v>1829110281.743732</v>
       </c>
       <c r="F15" t="n">
-        <v>0.101390971552631</v>
+        <v>0.06639990315622625</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03107008738354069</v>
+        <v>0.04271936073682754</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1880612122.897923</v>
+        <v>2191631710.111307</v>
       </c>
       <c r="F16" t="n">
-        <v>0.077857124485279</v>
+        <v>0.07549365357808629</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0476161491191724</v>
+        <v>0.03809433601577278</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4550583287.535871</v>
+        <v>4187062708.108854</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1642937457364442</v>
+        <v>0.1408070434058642</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03512323875699858</v>
+        <v>0.04006636701924879</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3082173506.361836</v>
+        <v>3184226818.078107</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1282106660450236</v>
+        <v>0.1609300163121854</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02329545671819811</v>
+        <v>0.03071111054183189</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1309492971.135222</v>
+        <v>872047590.296726</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1176002006996001</v>
+        <v>0.1646478996603256</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02229144594130258</v>
+        <v>0.02429197893465954</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2488487949.69319</v>
+        <v>2006050234.777619</v>
       </c>
       <c r="F20" t="n">
-        <v>0.143700344200294</v>
+        <v>0.1283772241761285</v>
       </c>
       <c r="G20" t="n">
-        <v>0.01951695856649661</v>
+        <v>0.02919543035628902</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2338202414.611331</v>
+        <v>2298665318.943897</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07823519499128546</v>
+        <v>0.09551685340957494</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03681951528298799</v>
+        <v>0.04347641729576065</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,22 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2568782840.602154</v>
+        <v>3890942983.678326</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09654188050371108</v>
+        <v>0.1382365481948869</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05227002762844447</v>
+        <v>0.04159850448358862</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1068,22 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1105265886.572283</v>
+        <v>1154913774.688793</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1249912359947723</v>
+        <v>0.1785126528744099</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05253828898834464</v>
+        <v>0.04247167007204916</v>
       </c>
       <c r="H23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1102,16 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3424562621.5141</v>
+        <v>3264015932.71639</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1117764193623449</v>
+        <v>0.1152214734424737</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03669117291588955</v>
+        <v>0.03705367691045283</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1370900594.550535</v>
+        <v>1482333561.171375</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09886140597846994</v>
+        <v>0.0776938126751945</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02968724716877503</v>
+        <v>0.02877361882182189</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1158,13 +1158,13 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1000477449.352187</v>
+        <v>1150259681.316771</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08524086754578987</v>
+        <v>0.1234485712116663</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03768592552478266</v>
+        <v>0.0379526906464844</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,19 +1180,19 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4576501322.510555</v>
+        <v>4489081152.685199</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1038513829490174</v>
+        <v>0.147259465662867</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02306737059528007</v>
+        <v>0.02138812127763203</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
@@ -1214,16 +1214,16 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2851691124.25891</v>
+        <v>2469010499.863632</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1033811646168706</v>
+        <v>0.1105088659515776</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04625628876335942</v>
+        <v>0.04234164471045385</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5219801053.774092</v>
+        <v>5894224372.190065</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1139486228828558</v>
+        <v>0.1389976717793013</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03161518522686388</v>
+        <v>0.03853241375588784</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2050490926.453177</v>
+        <v>2385539869.536704</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09630522346193282</v>
+        <v>0.09012249110464415</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03070542155533535</v>
+        <v>0.02672243041012738</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,22 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1423909615.078488</v>
+        <v>1035113788.439409</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07778133370833806</v>
+        <v>0.1052618058175821</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04691251062477046</v>
+        <v>0.03994820263505249</v>
       </c>
       <c r="H31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1365159863.788091</v>
+        <v>1194971796.871747</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1157345926615631</v>
+        <v>0.1005266116380934</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03293682291408145</v>
+        <v>0.02424246870488862</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1354,13 +1354,13 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2155200782.796547</v>
+        <v>2171897045.02697</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1308733744450845</v>
+        <v>0.1447689702013536</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04021642500765368</v>
+        <v>0.03784166261132976</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1572191511.406611</v>
+        <v>1007432732.945813</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08194609841093216</v>
+        <v>0.1115890718769719</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02646292301052001</v>
+        <v>0.02467191410738813</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1195644613.276475</v>
+        <v>916383578.1868728</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09697997129950742</v>
+        <v>0.09270886464767326</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03042845064924787</v>
+        <v>0.02829512844866688</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2952013288.811447</v>
+        <v>2786708238.221004</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1804811537639363</v>
+        <v>0.1493454462395922</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02407358323962351</v>
+        <v>0.01787579261802458</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2437673599.369427</v>
+        <v>1897265536.42602</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09899987700667244</v>
+        <v>0.08335065201862696</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03696893343276671</v>
+        <v>0.03454403644460571</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1494,13 +1494,13 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1895960948.206169</v>
+        <v>1543963738.888342</v>
       </c>
       <c r="F38" t="n">
-        <v>0.096339256078101</v>
+        <v>0.0867521193435474</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03682960879660607</v>
+        <v>0.0391575437680274</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,22 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2137584705.245042</v>
+        <v>2008085705.11122</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1606099582709748</v>
+        <v>0.1501955011173474</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0287849075983295</v>
+        <v>0.02881684667176089</v>
       </c>
       <c r="H39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1550,13 +1550,13 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1432128143.48194</v>
+        <v>1748698518.679759</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1481636964690273</v>
+        <v>0.1269783060177217</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05691102354761429</v>
+        <v>0.04258730732189193</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2766334289.697203</v>
+        <v>2250210918.593266</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1194612582304951</v>
+        <v>0.139874916670755</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03060055540119028</v>
+        <v>0.04313183604628332</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3079058237.540508</v>
+        <v>2771017881.118519</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1242780095583901</v>
+        <v>0.0974320919560113</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04002742701416923</v>
+        <v>0.03941175371313803</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2407227528.516758</v>
+        <v>2451843439.265612</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1966437605943601</v>
+        <v>0.123863439055182</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02080525208315446</v>
+        <v>0.02253541555762954</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1662,13 +1662,13 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2069131234.466002</v>
+        <v>2218535029.001126</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0847391909184034</v>
+        <v>0.06713076031377353</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02597218793002664</v>
+        <v>0.03365684823333661</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1713996676.086916</v>
+        <v>1681726016.200486</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1809144944804831</v>
+        <v>0.1392933233416382</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05451732539227794</v>
+        <v>0.04334536522390393</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1718,16 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3885570755.074583</v>
+        <v>3726097480.423875</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1733873812887317</v>
+        <v>0.1631319047066802</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05535687544762708</v>
+        <v>0.0598645274291457</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4144368835.175581</v>
+        <v>3365465603.265612</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1533243596786946</v>
+        <v>0.1682096727859518</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04378515263992818</v>
+        <v>0.05133903660330567</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3404328293.573047</v>
+        <v>4077135284.187894</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1015057491999299</v>
+        <v>0.1037240881753868</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03372635926955823</v>
+        <v>0.0296871021441531</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1451546774.352713</v>
+        <v>1438594196.966565</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1961348519973544</v>
+        <v>0.1884899820259364</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03974985992230504</v>
+        <v>0.04080362401488281</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4227478483.91755</v>
+        <v>3036887027.733249</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1494553021126111</v>
+        <v>0.1301286062749991</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04571294281707024</v>
+        <v>0.04454161957632614</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,22 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1364404732.027119</v>
+        <v>1419280705.919428</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1963430920565854</v>
+        <v>0.1197480252919322</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04243066680876473</v>
+        <v>0.03505818514352012</v>
       </c>
       <c r="H51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3405608038.621691</v>
+        <v>4895118046.546638</v>
       </c>
       <c r="F52" t="n">
-        <v>0.08543764938819939</v>
+        <v>0.1252421141066181</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05971098342530498</v>
+        <v>0.05313002823936844</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2598336139.063178</v>
+        <v>3101399783.835246</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1509610816674982</v>
+        <v>0.1671139467103198</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03285629422960405</v>
+        <v>0.03323029901908842</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3208573020.981463</v>
+        <v>3574096178.689835</v>
       </c>
       <c r="F54" t="n">
-        <v>0.164998724111195</v>
+        <v>0.1153620415116111</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05192700444156243</v>
+        <v>0.03866100201587037</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,19 +1964,19 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4757061256.605586</v>
+        <v>4906098641.115486</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1846751633597424</v>
+        <v>0.2028080151620223</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02070918266879452</v>
+        <v>0.03042567739154314</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1811877351.998537</v>
+        <v>1814450172.539589</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1484933196931512</v>
+        <v>0.1593074348852159</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04514589162706646</v>
+        <v>0.04829314589772</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2026,13 +2026,13 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4291366629.303795</v>
+        <v>4506428152.912347</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1336652342093206</v>
+        <v>0.1196627538032759</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02623617138827281</v>
+        <v>0.02588644710224653</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1645424120.372521</v>
+        <v>1753245640.172425</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1888554707287275</v>
+        <v>0.1624961863866902</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02932954039651822</v>
+        <v>0.03305897772429034</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3592205785.954959</v>
+        <v>3333099951.986934</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09704382234539038</v>
+        <v>0.08940879219372913</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04134721420992094</v>
+        <v>0.03523293294637204</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2110,16 +2110,16 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3158566194.527686</v>
+        <v>2633314170.32321</v>
       </c>
       <c r="F60" t="n">
-        <v>0.2023413504786812</v>
+        <v>0.2025772248768035</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0299190187014505</v>
+        <v>0.02243324667073694</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2810127849.649315</v>
+        <v>2456810366.492976</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1196995530726351</v>
+        <v>0.1350727904775366</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02485396613949285</v>
+        <v>0.03019130177468772</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2166,13 +2166,13 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2037743444.113554</v>
+        <v>1639091963.744354</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1241544398592798</v>
+        <v>0.1714621547498213</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03063955461467583</v>
+        <v>0.03604282694557102</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3644527982.978961</v>
+        <v>5172298591.215874</v>
       </c>
       <c r="F63" t="n">
-        <v>0.06978491519692467</v>
+        <v>0.1044411589933372</v>
       </c>
       <c r="G63" t="n">
-        <v>0.02927228834113279</v>
+        <v>0.03753927507115924</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3364962208.611967</v>
+        <v>3792441960.283523</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1297821008669064</v>
+        <v>0.1298609427239316</v>
       </c>
       <c r="G64" t="n">
-        <v>0.0315835673801071</v>
+        <v>0.02878611670786124</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4460693502.112496</v>
+        <v>3810727160.510809</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1415334101809702</v>
+        <v>0.1420416981190356</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02414048685458038</v>
+        <v>0.03123856371653524</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5389923568.068038</v>
+        <v>4505988315.583601</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1534478729269916</v>
+        <v>0.1612928289409644</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03808804125644682</v>
+        <v>0.03464975421612499</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3255062041.893516</v>
+        <v>2525433630.298889</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07379232527822392</v>
+        <v>0.08320159320639924</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0347259428999366</v>
+        <v>0.04571502402585802</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5685086526.640538</v>
+        <v>5920605768.278951</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1076387796037494</v>
+        <v>0.1081022052763767</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04490029325732196</v>
+        <v>0.03308594217959163</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1496453236.251405</v>
+        <v>1518955878.041251</v>
       </c>
       <c r="F69" t="n">
-        <v>0.153536792560326</v>
+        <v>0.1627824502496358</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04816301205285529</v>
+        <v>0.03901995097043812</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,22 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2380301554.16898</v>
+        <v>3181597829.311123</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08595469475481582</v>
+        <v>0.093833943139496</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04614770523369904</v>
+        <v>0.03588757025064591</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4602018004.468266</v>
+        <v>5325803178.331825</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1770783584341555</v>
+        <v>0.1620745407972133</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02813354571809744</v>
+        <v>0.02549029473289632</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2187133003.926322</v>
+        <v>1522875920.913762</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07705867775212943</v>
+        <v>0.09576954266023491</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03627300397596003</v>
+        <v>0.04831188943713318</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3535671487.208607</v>
+        <v>2916449236.962706</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08242734498396043</v>
+        <v>0.0856445827425061</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04237168115334648</v>
+        <v>0.04898069607544711</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3545524122.926659</v>
+        <v>3892720780.420256</v>
       </c>
       <c r="F74" t="n">
-        <v>0.142690977415717</v>
+        <v>0.1116724274906826</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03340115398769886</v>
+        <v>0.02597701537875327</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1538661867.599452</v>
+        <v>2195491678.882938</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1488464100380534</v>
+        <v>0.1403311705233651</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02693669070098862</v>
+        <v>0.03192669844775702</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2558,13 +2558,13 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3443404985.872011</v>
+        <v>4091830863.110178</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08160433397270596</v>
+        <v>0.08118216735700008</v>
       </c>
       <c r="G76" t="n">
-        <v>0.0208737629259238</v>
+        <v>0.02668415840992683</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
@@ -2586,13 +2586,13 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2309910678.197093</v>
+        <v>1915815611.820685</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1481091404623548</v>
+        <v>0.1761061883343917</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02461546032952381</v>
+        <v>0.0228198316066881</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3185653189.802176</v>
+        <v>4776525907.295673</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1292856329148123</v>
+        <v>0.09192773922415627</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04322703339129824</v>
+        <v>0.03663624249248008</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1725409353.772185</v>
+        <v>1775576865.521009</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1191094584638326</v>
+        <v>0.1377805319819584</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03421326960420703</v>
+        <v>0.0311583712238134</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3837528911.193342</v>
+        <v>3497264655.197505</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09708654014444447</v>
+        <v>0.09309212983037088</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03619291935978562</v>
+        <v>0.02492032021454695</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4752147956.589599</v>
+        <v>4311389145.11918</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09414202463355865</v>
+        <v>0.101340764761937</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02651294182159328</v>
+        <v>0.02225138671254373</v>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4825994253.879032</v>
+        <v>5034348590.753204</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1603949615808903</v>
+        <v>0.1745491659597501</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0288967687720037</v>
+        <v>0.02545941944271703</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1778377654.226793</v>
+        <v>2182479624.232773</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1058752877174175</v>
+        <v>0.1406984781149344</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04470893273703012</v>
+        <v>0.02950925272391845</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1726667429.769418</v>
+        <v>2307001544.867463</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08149428716840926</v>
+        <v>0.08156171002246207</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03234253579697077</v>
+        <v>0.03488272443241875</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,22 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2472787780.807464</v>
+        <v>3359267579.399607</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1199608767252343</v>
+        <v>0.1736053158150173</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05182065490107603</v>
+        <v>0.04883095352988164</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -2832,22 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2687621396.643816</v>
+        <v>2698924631.730422</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1163604444735518</v>
+        <v>0.1069415109080265</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01968729809463063</v>
+        <v>0.0213469793420386</v>
       </c>
       <c r="H86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -2866,13 +2866,13 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>967037381.4156901</v>
+        <v>1390897628.338003</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1210969079376592</v>
+        <v>0.1320095568096722</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02729007636112096</v>
+        <v>0.03191144724812167</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2552765497.917559</v>
+        <v>2940987153.469656</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1472922336914644</v>
+        <v>0.134716041536493</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02950679030705626</v>
+        <v>0.02605040285658576</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2665580948.757168</v>
+        <v>2172464531.507046</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1335338310803184</v>
+        <v>0.1340887562807602</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03835616382540407</v>
+        <v>0.02809679536035542</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2950,16 +2950,16 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1845674838.434715</v>
+        <v>1838170107.348788</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1254198979376903</v>
+        <v>0.1151086360512478</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03465572944749928</v>
+        <v>0.05188762628774923</v>
       </c>
       <c r="H90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1451653614.507565</v>
+        <v>1281268952.638233</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1458764067379833</v>
+        <v>0.1415179005720353</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04482893699618689</v>
+        <v>0.05820954845723059</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,22 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2267407801.92241</v>
+        <v>2518373777.791949</v>
       </c>
       <c r="F92" t="n">
-        <v>0.06660383897750069</v>
+        <v>0.1046511271368065</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03789232197717297</v>
+        <v>0.04368257564277978</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4081362106.747254</v>
+        <v>3472344429.826376</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09927769841001793</v>
+        <v>0.08978053222984574</v>
       </c>
       <c r="G93" t="n">
-        <v>0.052175805690183</v>
+        <v>0.04437901267251853</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2154006014.223499</v>
+        <v>2413623028.776947</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1192118996896436</v>
+        <v>0.136267187918662</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0295225170203018</v>
+        <v>0.03805339455455538</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3090,16 +3090,16 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2902414775.827414</v>
+        <v>2911755955.830351</v>
       </c>
       <c r="F95" t="n">
-        <v>0.138098589290555</v>
+        <v>0.1194864720161178</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03477234042155901</v>
+        <v>0.03359459332124714</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2252277717.0644</v>
+        <v>1586091158.699845</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1205217791227332</v>
+        <v>0.09920643152124969</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04535712024151708</v>
+        <v>0.03773732821410822</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3146,16 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5017689676.166514</v>
+        <v>4600053905.281898</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1670616425003781</v>
+        <v>0.1483426911477047</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02456826580926715</v>
+        <v>0.02572414175492959</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3174,13 +3174,13 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2390894374.491021</v>
+        <v>3202111013.741194</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08784600232863136</v>
+        <v>0.08926553176058578</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02886023396845634</v>
+        <v>0.02810854919015413</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3341721834.43938</v>
+        <v>2339220891.575387</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1177509634982253</v>
+        <v>0.1150766770759198</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03192635303258712</v>
+        <v>0.02578661445617838</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,22 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>2895537557.143343</v>
+        <v>3596798776.727444</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1465012349220241</v>
+        <v>0.1518979558482408</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01833538239787323</v>
+        <v>0.02607396034919657</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3258,13 +3258,13 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2682218789.652568</v>
+        <v>3301464864.577015</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1366191094199155</v>
+        <v>0.2079273866379602</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04489572244583318</v>
+        <v>0.0363206807897615</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_359.xlsx
+++ b/output/fit_clients/fit_round_359.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2322571770.930431</v>
+        <v>2040166535.891327</v>
       </c>
       <c r="F2" t="n">
-        <v>0.086943655150079</v>
+        <v>0.094496481308856</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03660790711062822</v>
+        <v>0.03670747101868559</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1845212352.338799</v>
+        <v>2370172308.166317</v>
       </c>
       <c r="F3" t="n">
-        <v>0.143659549674605</v>
+        <v>0.1354181469860001</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03599444240763497</v>
+        <v>0.04018983690851555</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,23 +565,30 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4010506197.734962</v>
+        <v>3757923419.899004</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1424344261944249</v>
+        <v>0.1418674137451035</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02574944582334502</v>
+        <v>0.03055237051895696</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>185</v>
+      </c>
+      <c r="J4" t="n">
+        <v>359</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,23 +600,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2655473955.656658</v>
+        <v>2900108617.678026</v>
       </c>
       <c r="F5" t="n">
-        <v>0.06777721901163858</v>
+        <v>0.07166898256630809</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04070469674377305</v>
+        <v>0.04537735825568726</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
+      <c r="I5" t="n">
+        <v>143</v>
+      </c>
+      <c r="J5" t="n">
+        <v>357</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +635,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2481943677.324492</v>
+        <v>2217958322.781494</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1027596396316824</v>
+        <v>0.139005238507707</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04427855900332447</v>
+        <v>0.04762435849067123</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -626,17 +676,24 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2826237193.494135</v>
+        <v>1964770168.435026</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07954738728471279</v>
+        <v>0.07254086972177727</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03420533364656977</v>
+        <v>0.03002018623973293</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -654,17 +711,24 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2724947157.640096</v>
+        <v>2674430426.706621</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1589807868639853</v>
+        <v>0.1988769342285339</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03342430678336918</v>
+        <v>0.02978437400921568</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>94</v>
+      </c>
+      <c r="J8" t="n">
+        <v>354</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -682,17 +746,24 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2216605742.239013</v>
+        <v>1698898902.438086</v>
       </c>
       <c r="F9" t="n">
-        <v>0.146473372245338</v>
+        <v>0.1538884389300343</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02408527836168528</v>
+        <v>0.02430498643191598</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +775,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5783363953.583754</v>
+        <v>5344325755.698683</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2089600975600006</v>
+        <v>0.1611998352523649</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04194614172253833</v>
+        <v>0.03868581228152193</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>301</v>
+      </c>
+      <c r="J10" t="n">
+        <v>358</v>
+      </c>
+      <c r="K10" t="n">
+        <v>59.29085486981501</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +812,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3828153835.273769</v>
+        <v>3844836429.370866</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1862055566347046</v>
+        <v>0.1162342687744657</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03140677554843977</v>
+        <v>0.03053588471366985</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>149</v>
+      </c>
+      <c r="J11" t="n">
+        <v>359</v>
+      </c>
+      <c r="K11" t="n">
+        <v>68.8415863878995</v>
       </c>
     </row>
     <row r="12">
@@ -760,23 +849,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3042274725.657341</v>
+        <v>3060697249.136183</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1596670469061719</v>
+        <v>0.1899568487762233</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03928109249179738</v>
+        <v>0.04635822429298699</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,22 +884,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5095059940.445642</v>
+        <v>4049322366.239932</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08878928253791564</v>
+        <v>0.08819464664610413</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02569789516672713</v>
+        <v>0.0227913929547733</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>186</v>
+      </c>
+      <c r="J13" t="n">
+        <v>359</v>
+      </c>
+      <c r="K13" t="n">
+        <v>63.35385411704819</v>
       </c>
     </row>
     <row r="14">
@@ -822,17 +927,24 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3781063543.81995</v>
+        <v>3719703096.051708</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1559473075373501</v>
+        <v>0.1475294731720745</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04287422354687291</v>
+        <v>0.04199089074129241</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>74</v>
+      </c>
+      <c r="J14" t="n">
+        <v>359</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +956,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1829110281.743732</v>
+        <v>1264198389.659795</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06639990315622625</v>
+        <v>0.1080183842328119</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04271936073682754</v>
+        <v>0.0443054935302287</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -878,17 +997,24 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2191631710.111307</v>
+        <v>2630105483.692298</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07549365357808629</v>
+        <v>0.07035124692761671</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03809433601577278</v>
+        <v>0.04198703450067058</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,22 +1026,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4187062708.108854</v>
+        <v>3431986775.80145</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1408070434058642</v>
+        <v>0.1382852082923418</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04006636701924879</v>
+        <v>0.03906677263618587</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>170</v>
+      </c>
+      <c r="J17" t="n">
+        <v>358</v>
+      </c>
+      <c r="K17" t="n">
+        <v>47.85027887074661</v>
       </c>
     </row>
     <row r="18">
@@ -934,17 +1069,24 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3184226818.078107</v>
+        <v>2838407558.812979</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1609300163121854</v>
+        <v>0.1836326803324657</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03071111054183189</v>
+        <v>0.02293520961085461</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>88</v>
+      </c>
+      <c r="J18" t="n">
+        <v>356</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1098,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>872047590.296726</v>
+        <v>828101428.9101721</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1646478996603256</v>
+        <v>0.1521837359042846</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02429197893465954</v>
+        <v>0.02191621085192792</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1133,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2006050234.777619</v>
+        <v>1882172763.639675</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1283772241761285</v>
+        <v>0.155230237579831</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02919543035628902</v>
+        <v>0.02332545029403075</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1168,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2298665318.943897</v>
+        <v>2733435003.607789</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09551685340957494</v>
+        <v>0.08846606113718934</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04347641729576065</v>
+        <v>0.03734829924445324</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,22 +1203,31 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3890942983.678326</v>
+        <v>3429670636.915283</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1382365481948869</v>
+        <v>0.1394302940565206</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04159850448358862</v>
+        <v>0.04190233818085059</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>98</v>
+      </c>
+      <c r="J22" t="n">
+        <v>358</v>
+      </c>
+      <c r="K22" t="n">
+        <v>55.90258395429863</v>
       </c>
     </row>
     <row r="23">
@@ -1068,23 +1240,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1154913774.688793</v>
+        <v>1450102120.122047</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1785126528744099</v>
+        <v>0.1796228729938731</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04247167007204916</v>
+        <v>0.04726982749759864</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,22 +1275,31 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3264015932.71639</v>
+        <v>3243742129.447353</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1152214734424737</v>
+        <v>0.1449610750043301</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03705367691045283</v>
+        <v>0.02760679298976851</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>109</v>
+      </c>
+      <c r="J24" t="n">
+        <v>358</v>
+      </c>
+      <c r="K24" t="n">
+        <v>45.99603153065782</v>
       </c>
     </row>
     <row r="25">
@@ -1124,23 +1312,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1482333561.171375</v>
+        <v>1363134355.607401</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0776938126751945</v>
+        <v>0.108584354951405</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02877361882182189</v>
+        <v>0.02342094992306163</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1347,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1150259681.316771</v>
+        <v>1237530834.23291</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1234485712116663</v>
+        <v>0.109261641742825</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0379526906464844</v>
+        <v>0.03603347533378991</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1186,17 +1388,24 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4489081152.685199</v>
+        <v>3933785613.274303</v>
       </c>
       <c r="F27" t="n">
-        <v>0.147259465662867</v>
+        <v>0.09524356336596164</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02138812127763203</v>
+        <v>0.02421349944611449</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>150</v>
+      </c>
+      <c r="J27" t="n">
+        <v>359</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,22 +1417,31 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2469010499.863632</v>
+        <v>3003827068.154014</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1105088659515776</v>
+        <v>0.1002282558805754</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04234164471045385</v>
+        <v>0.04588598712902406</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>85</v>
+      </c>
+      <c r="J28" t="n">
+        <v>358</v>
+      </c>
+      <c r="K28" t="n">
+        <v>45.67299749903206</v>
       </c>
     </row>
     <row r="29">
@@ -1236,23 +1454,30 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5894224372.190065</v>
+        <v>4225913619.096147</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1389976717793013</v>
+        <v>0.1276103598286536</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03853241375588784</v>
+        <v>0.0332608319875361</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
       </c>
+      <c r="I29" t="n">
+        <v>317</v>
+      </c>
+      <c r="J29" t="n">
+        <v>359</v>
+      </c>
+      <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1264,23 +1489,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2385539869.536704</v>
+        <v>1771075041.3501</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09012249110464415</v>
+        <v>0.09161931947502595</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02672243041012738</v>
+        <v>0.03431734194572329</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1524,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1035113788.439409</v>
+        <v>1225989851.738861</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1052618058175821</v>
+        <v>0.07206511091320465</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03994820263505249</v>
+        <v>0.03893820798900065</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1559,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1194971796.871747</v>
+        <v>1898002461.950823</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1005266116380934</v>
+        <v>0.09621979362538526</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02424246870488862</v>
+        <v>0.0382826966294265</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1354,17 +1600,24 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2171897045.02697</v>
+        <v>2910002053.680468</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1447689702013536</v>
+        <v>0.1689569825554294</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03784166261132976</v>
+        <v>0.04743681594939302</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1382,17 +1635,24 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1007432732.945813</v>
+        <v>1524800978.232378</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1115890718769719</v>
+        <v>0.08699006768886897</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02467191410738813</v>
+        <v>0.01962696309390134</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1664,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>916383578.1868728</v>
+        <v>1016163750.830125</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09270886464767326</v>
+        <v>0.08320680115882916</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02829512844866688</v>
+        <v>0.04162097673013851</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1438,17 +1705,24 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2786708238.221004</v>
+        <v>3038409916.501492</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1493454462395922</v>
+        <v>0.1418990084695804</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01787579261802458</v>
+        <v>0.01767862245145574</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1466,17 +1740,24 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1897265536.42602</v>
+        <v>2349869158.048851</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08335065201862696</v>
+        <v>0.06893386217676969</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03454403644460571</v>
+        <v>0.04214284161595241</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1494,17 +1775,24 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1543963738.888342</v>
+        <v>1488003668.478693</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0867521193435474</v>
+        <v>0.09574603098232336</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0391575437680274</v>
+        <v>0.03118763736196298</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1804,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2008085705.11122</v>
+        <v>1496931978.272607</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1501955011173474</v>
+        <v>0.1302072221207131</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02881684667176089</v>
+        <v>0.03163331165368549</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1839,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1748698518.679759</v>
+        <v>1614727990.737882</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1269783060177217</v>
+        <v>0.1443252840241834</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04258730732189193</v>
+        <v>0.05791037889289597</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1578,17 +1880,24 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2250210918.593266</v>
+        <v>2713591354.681366</v>
       </c>
       <c r="F41" t="n">
-        <v>0.139874916670755</v>
+        <v>0.1625549634977811</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04313183604628332</v>
+        <v>0.03818984630519888</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,22 +1909,31 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2771017881.118519</v>
+        <v>3861518593.136864</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0974320919560113</v>
+        <v>0.09809059216308742</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03941175371313803</v>
+        <v>0.03911068168611823</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>157</v>
+      </c>
+      <c r="J42" t="n">
+        <v>359</v>
+      </c>
+      <c r="K42" t="n">
+        <v>68.6026614501417</v>
       </c>
     </row>
     <row r="43">
@@ -1628,23 +1946,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2451843439.265612</v>
+        <v>2354304537.366117</v>
       </c>
       <c r="F43" t="n">
-        <v>0.123863439055182</v>
+        <v>0.1271010457666544</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02253541555762954</v>
+        <v>0.02255264982163071</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1662,17 +1987,24 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2218535029.001126</v>
+        <v>1814367334.261017</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06713076031377353</v>
+        <v>0.09617402320518846</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03365684823333661</v>
+        <v>0.03270981307153797</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2016,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1681726016.200486</v>
+        <v>2034601234.512516</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1392933233416382</v>
+        <v>0.1541420677537981</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04334536522390393</v>
+        <v>0.04338442867792198</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,23 +2051,30 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3726097480.423875</v>
+        <v>4857877450.733004</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1631319047066802</v>
+        <v>0.1249805810947447</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0598645274291457</v>
+        <v>0.04967683090737225</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>215</v>
+      </c>
+      <c r="J46" t="n">
+        <v>359</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1740,23 +2086,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3365465603.265612</v>
+        <v>4895912583.591889</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1682096727859518</v>
+        <v>0.1381523060859741</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05133903660330567</v>
+        <v>0.0496342093690965</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>160</v>
+      </c>
+      <c r="J47" t="n">
+        <v>359</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,22 +2121,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4077135284.187894</v>
+        <v>4236417821.58609</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1037240881753868</v>
+        <v>0.1045391106493954</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0296871021441531</v>
+        <v>0.03223643461749891</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>183</v>
+      </c>
+      <c r="J48" t="n">
+        <v>359</v>
+      </c>
+      <c r="K48" t="n">
+        <v>62.46588141271636</v>
       </c>
     </row>
     <row r="49">
@@ -1796,23 +2158,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1438594196.966565</v>
+        <v>1324190170.881812</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1884899820259364</v>
+        <v>0.1413924116989109</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04080362401488281</v>
+        <v>0.02862671841161551</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,22 +2193,31 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3036887027.733249</v>
+        <v>3036342605.637506</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1301286062749991</v>
+        <v>0.1734177030752483</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04454161957632614</v>
+        <v>0.04025660299212475</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>119</v>
+      </c>
+      <c r="J50" t="n">
+        <v>358</v>
+      </c>
+      <c r="K50" t="n">
+        <v>42.77655706943397</v>
       </c>
     </row>
     <row r="51">
@@ -1852,23 +2230,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1419280705.919428</v>
+        <v>1481589491.941009</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1197480252919322</v>
+        <v>0.1589764249557673</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03505818514352012</v>
+        <v>0.05430266967231873</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2265,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4895118046.546638</v>
+        <v>3528467100.013039</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1252421141066181</v>
+        <v>0.08622016418822924</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05313002823936844</v>
+        <v>0.04606477802566422</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>213</v>
+      </c>
+      <c r="J52" t="n">
+        <v>358</v>
+      </c>
+      <c r="K52" t="n">
+        <v>50.28181012142389</v>
       </c>
     </row>
     <row r="53">
@@ -1908,23 +2302,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3101399783.835246</v>
+        <v>3530521670.16784</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1671139467103198</v>
+        <v>0.158766327426684</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03323029901908842</v>
+        <v>0.03251024392383338</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>52</v>
+      </c>
+      <c r="J53" t="n">
+        <v>357</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,22 +2337,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3574096178.689835</v>
+        <v>3361919153.874336</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1153620415116111</v>
+        <v>0.1289652724845761</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03866100201587037</v>
+        <v>0.05210978981124763</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>190</v>
+      </c>
+      <c r="J54" t="n">
+        <v>358</v>
+      </c>
+      <c r="K54" t="n">
+        <v>47.70148875415436</v>
       </c>
     </row>
     <row r="55">
@@ -1964,23 +2374,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4906098641.115486</v>
+        <v>3594301054.377409</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2028080151620223</v>
+        <v>0.1782112046228498</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03042567739154314</v>
+        <v>0.02052385219691983</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>172</v>
+      </c>
+      <c r="J55" t="n">
+        <v>357</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1998,17 +2415,24 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1814450172.539589</v>
+        <v>1639645948.920104</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1593074348852159</v>
+        <v>0.1249271725222029</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04829314589772</v>
+        <v>0.04140953767841477</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2026,17 +2450,24 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4506428152.912347</v>
+        <v>4361378479.313107</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1196627538032759</v>
+        <v>0.1225040290161922</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02588644710224653</v>
+        <v>0.01805729604452272</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>148</v>
+      </c>
+      <c r="J57" t="n">
+        <v>359</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2479,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1753245640.172425</v>
+        <v>1866232505.212174</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1624961863866902</v>
+        <v>0.1927156884240077</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03305897772429034</v>
+        <v>0.02636262888784748</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2082,16 +2520,25 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3333099951.986934</v>
+        <v>4191005334.490772</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08940879219372913</v>
+        <v>0.1200328295040003</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03523293294637204</v>
+        <v>0.03615827257220745</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>174</v>
+      </c>
+      <c r="J59" t="n">
+        <v>358</v>
+      </c>
+      <c r="K59" t="n">
+        <v>59.4857364702541</v>
       </c>
     </row>
     <row r="60">
@@ -2110,17 +2557,24 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2633314170.32321</v>
+        <v>3682990676.770911</v>
       </c>
       <c r="F60" t="n">
-        <v>0.2025772248768035</v>
+        <v>0.156609046033592</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02243324667073694</v>
+        <v>0.02086456883416765</v>
       </c>
       <c r="H60" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>63</v>
+      </c>
+      <c r="J60" t="n">
+        <v>359</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2586,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2456810366.492976</v>
+        <v>3018829774.628002</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1350727904775366</v>
+        <v>0.1133436073131576</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03019130177468772</v>
+        <v>0.02187009827187065</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>11</v>
+      </c>
+      <c r="J61" t="n">
+        <v>314</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2166,17 +2627,24 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1639091963.744354</v>
+        <v>1454361110.700598</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1714621547498213</v>
+        <v>0.1283368053779899</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03604282694557102</v>
+        <v>0.04255583229570721</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,23 +2656,30 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5172298591.215874</v>
+        <v>5024692765.654181</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1044411589933372</v>
+        <v>0.07806111152869399</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03753927507115924</v>
+        <v>0.03082276508234031</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>176</v>
+      </c>
+      <c r="J63" t="n">
+        <v>359</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2222,16 +2697,25 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3792441960.283523</v>
+        <v>4084715608.391739</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1298609427239316</v>
+        <v>0.1551369166909671</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02878611670786124</v>
+        <v>0.02651689870137483</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>178</v>
+      </c>
+      <c r="J64" t="n">
+        <v>358</v>
+      </c>
+      <c r="K64" t="n">
+        <v>59.77402398011308</v>
       </c>
     </row>
     <row r="65">
@@ -2244,23 +2728,30 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3810727160.510809</v>
+        <v>4967792201.077208</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1420416981190356</v>
+        <v>0.1651578224566149</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03123856371653524</v>
+        <v>0.02281357719347914</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
       </c>
+      <c r="I65" t="n">
+        <v>274</v>
+      </c>
+      <c r="J65" t="n">
+        <v>359</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2278,17 +2769,24 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4505988315.583601</v>
+        <v>5516968263.777271</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1612928289409644</v>
+        <v>0.1170416003555864</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03464975421612499</v>
+        <v>0.03489308698432007</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>177</v>
+      </c>
+      <c r="J66" t="n">
+        <v>359</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2306,17 +2804,24 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2525433630.298889</v>
+        <v>2137312704.814904</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08320159320639924</v>
+        <v>0.1028266310246168</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04571502402585802</v>
+        <v>0.0385002972497629</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>10</v>
+      </c>
+      <c r="J67" t="n">
+        <v>312</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2334,16 +2839,25 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5920605768.278951</v>
+        <v>4341146304.188139</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1081022052763767</v>
+        <v>0.1409967885368504</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03308594217959163</v>
+        <v>0.04652994542418908</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>195</v>
+      </c>
+      <c r="J68" t="n">
+        <v>358</v>
+      </c>
+      <c r="K68" t="n">
+        <v>59.41255240024529</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2870,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1518955878.041251</v>
+        <v>2147873299.734451</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1627824502496358</v>
+        <v>0.1226694494165247</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03901995097043812</v>
+        <v>0.05197972931281072</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2905,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3181597829.311123</v>
+        <v>2965211578.255302</v>
       </c>
       <c r="F70" t="n">
-        <v>0.093833943139496</v>
+        <v>0.0854570127186202</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03588757025064591</v>
+        <v>0.04816574737270567</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>51</v>
+      </c>
+      <c r="J70" t="n">
+        <v>350</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2418,17 +2946,24 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5325803178.331825</v>
+        <v>4584885048.160335</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1620745407972133</v>
+        <v>0.155691506121557</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02549029473289632</v>
+        <v>0.02959643835937853</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
       </c>
+      <c r="I71" t="n">
+        <v>260</v>
+      </c>
+      <c r="J71" t="n">
+        <v>359</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2440,23 +2975,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1522875920.913762</v>
+        <v>1377252879.416297</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09576954266023491</v>
+        <v>0.07624113320710792</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04831188943713318</v>
+        <v>0.0369226110298399</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3010,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2916449236.962706</v>
+        <v>2782635111.3079</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0856445827425061</v>
+        <v>0.1088815040774129</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04898069607544711</v>
+        <v>0.0338687507315186</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>25</v>
+      </c>
+      <c r="J73" t="n">
+        <v>346</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3045,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3892720780.420256</v>
+        <v>4008658362.825421</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1116724274906826</v>
+        <v>0.1267211271854452</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02597701537875327</v>
+        <v>0.022581961194012</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>99</v>
+      </c>
+      <c r="J74" t="n">
+        <v>359</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3080,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2195491678.882938</v>
+        <v>1642589218.723131</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1403311705233651</v>
+        <v>0.1348997949437647</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03192669844775702</v>
+        <v>0.02703245933018521</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,22 +3115,31 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4091830863.110178</v>
+        <v>3933415453.686834</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08118216735700008</v>
+        <v>0.08898980570597886</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02668415840992683</v>
+        <v>0.03200523445662472</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>170</v>
+      </c>
+      <c r="J76" t="n">
+        <v>358</v>
+      </c>
+      <c r="K76" t="n">
+        <v>60.84533073427799</v>
       </c>
     </row>
     <row r="77">
@@ -2580,23 +3152,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1915815611.820685</v>
+        <v>2256097035.028737</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1761061883343917</v>
+        <v>0.1383882257780975</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0228198316066881</v>
+        <v>0.03132457800155521</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2614,16 +3193,25 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4776525907.295673</v>
+        <v>3333945365.67571</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09192773922415627</v>
+        <v>0.1368160493127856</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03663624249248008</v>
+        <v>0.03687083684632212</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>179</v>
+      </c>
+      <c r="J78" t="n">
+        <v>358</v>
+      </c>
+      <c r="K78" t="n">
+        <v>47.30240366168378</v>
       </c>
     </row>
     <row r="79">
@@ -2642,17 +3230,24 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1775576865.521009</v>
+        <v>1282148436.861159</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1377805319819584</v>
+        <v>0.1445833069986761</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0311583712238134</v>
+        <v>0.03644930230973965</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,23 +3259,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3497264655.197505</v>
+        <v>4241179573.454443</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09309212983037088</v>
+        <v>0.07571700688503656</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02492032021454695</v>
+        <v>0.03389821954875401</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>175</v>
+      </c>
+      <c r="J80" t="n">
+        <v>359</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,22 +3294,31 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4311389145.11918</v>
+        <v>4724613910.156875</v>
       </c>
       <c r="F81" t="n">
-        <v>0.101340764761937</v>
+        <v>0.1261439168721202</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02225138671254373</v>
+        <v>0.02819877794464132</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>166</v>
+      </c>
+      <c r="J81" t="n">
+        <v>358</v>
+      </c>
+      <c r="K81" t="n">
+        <v>57.82683778459062</v>
       </c>
     </row>
     <row r="82">
@@ -2726,16 +3337,25 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5034348590.753204</v>
+        <v>4920449893.18363</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1745491659597501</v>
+        <v>0.2171205477981031</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02545941944271703</v>
+        <v>0.02125355699119986</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>253</v>
+      </c>
+      <c r="J82" t="n">
+        <v>358</v>
+      </c>
+      <c r="K82" t="n">
+        <v>60.73957331040964</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3368,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2182479624.232773</v>
+        <v>1976717915.242764</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1406984781149344</v>
+        <v>0.1448072853507437</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02950925272391845</v>
+        <v>0.03711920843526994</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3403,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2307001544.867463</v>
+        <v>2523828009.632266</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08156171002246207</v>
+        <v>0.1078165743312313</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03488272443241875</v>
+        <v>0.03223434235160731</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3438,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3359267579.399607</v>
+        <v>2962812792.631862</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1736053158150173</v>
+        <v>0.1617966855224077</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04883095352988164</v>
+        <v>0.05648960851529497</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>46</v>
+      </c>
+      <c r="J85" t="n">
+        <v>343</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3473,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2698924631.730422</v>
+        <v>1721306504.371311</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1069415109080265</v>
+        <v>0.1153628676636858</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0213469793420386</v>
+        <v>0.02607879971989095</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3508,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1390897628.338003</v>
+        <v>1366924903.330599</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1320095568096722</v>
+        <v>0.1621682149852908</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03191144724812167</v>
+        <v>0.03894089010780688</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2894,17 +3549,24 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2940987153.469656</v>
+        <v>3402248541.874012</v>
       </c>
       <c r="F88" t="n">
-        <v>0.134716041536493</v>
+        <v>0.1203812698136748</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02605040285658576</v>
+        <v>0.03571150500379249</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>46</v>
+      </c>
+      <c r="J88" t="n">
+        <v>331</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3578,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2172464531.507046</v>
+        <v>2750516865.17674</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1340887562807602</v>
+        <v>0.1191065740301591</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02809679536035542</v>
+        <v>0.03995324269197353</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>26</v>
+      </c>
+      <c r="J89" t="n">
+        <v>333</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3613,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1838170107.348788</v>
+        <v>1939656657.82933</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1151086360512478</v>
+        <v>0.08541287455897402</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05188762628774923</v>
+        <v>0.05044441567137729</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3648,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1281268952.638233</v>
+        <v>1493663641.459644</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1415179005720353</v>
+        <v>0.1250602740932909</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05820954845723059</v>
+        <v>0.04068828388075901</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3683,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2518373777.791949</v>
+        <v>1864156110.826302</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1046511271368065</v>
+        <v>0.08886603047475118</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04368257564277978</v>
+        <v>0.03501434273227109</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,22 +3718,31 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3472344429.826376</v>
+        <v>4976032110.706724</v>
       </c>
       <c r="F93" t="n">
-        <v>0.08978053222984574</v>
+        <v>0.1116420187347623</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04437901267251853</v>
+        <v>0.03998666416687752</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>167</v>
+      </c>
+      <c r="J93" t="n">
+        <v>359</v>
+      </c>
+      <c r="K93" t="n">
+        <v>61.44062604050474</v>
       </c>
     </row>
     <row r="94">
@@ -3062,17 +3761,24 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2413623028.776947</v>
+        <v>2177504897.286306</v>
       </c>
       <c r="F94" t="n">
-        <v>0.136267187918662</v>
+        <v>0.1458869406872204</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03805339455455538</v>
+        <v>0.03173932466185459</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3790,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2911755955.830351</v>
+        <v>2023536449.939117</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1194864720161178</v>
+        <v>0.1150245926540262</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03359459332124714</v>
+        <v>0.04366355485677584</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3118,17 +3831,24 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1586091158.699845</v>
+        <v>2169460364.350029</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09920643152124969</v>
+        <v>0.1007144167670367</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03773732821410822</v>
+        <v>0.03196099987547744</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3860,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4600053905.281898</v>
+        <v>3359641201.435369</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1483426911477047</v>
+        <v>0.1446485667391711</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02572414175492959</v>
+        <v>0.0176443673611225</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>185</v>
+      </c>
+      <c r="J97" t="n">
+        <v>357</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3168,23 +3895,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3202111013.741194</v>
+        <v>2927876524.055574</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08926553176058578</v>
+        <v>0.1207584128586907</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02810854919015413</v>
+        <v>0.02315517837587492</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>88</v>
+      </c>
+      <c r="J98" t="n">
+        <v>350</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3930,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2339220891.575387</v>
+        <v>3291657624.167551</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1150766770759198</v>
+        <v>0.1319633243915659</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02578661445617838</v>
+        <v>0.02527897478611708</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>7</v>
+      </c>
+      <c r="J99" t="n">
+        <v>348</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3965,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3596798776.727444</v>
+        <v>4542514789.340711</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1518979558482408</v>
+        <v>0.1362216236657324</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02607396034919657</v>
+        <v>0.02782979549953756</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>161</v>
+      </c>
+      <c r="J100" t="n">
+        <v>359</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3258,17 +4006,24 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3301464864.577015</v>
+        <v>2257377331.832609</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2079273866379602</v>
+        <v>0.1499641487732945</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0363206807897615</v>
+        <v>0.04407993162465265</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>32</v>
+      </c>
+      <c r="J101" t="n">
+        <v>341</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
